--- a/DataAnalyzer/assets/Promira_Template.xlsx
+++ b/DataAnalyzer/assets/Promira_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pekep\OneDrive\Project\Python\AnalysisTool\DataAnalyzer\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://photonicinc-my.sharepoint.com/personal/iyoneda_photonic_com/Documents/Python/AnalysisTool/DataAnalyzer/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34546EDD-0976-441B-9C7E-72ECB1EC2448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{34546EDD-0976-441B-9C7E-72ECB1EC2448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B4BCBF5-2DF9-47D5-988A-B030E9E432E6}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{71E5DD2A-653A-445C-B1AD-1FDFECD4E8B5}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{71E5DD2A-653A-445C-B1AD-1FDFECD4E8B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="6" r:id="rId1"/>
@@ -1140,6 +1140,51 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1149,56 +1194,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2381,23 +2381,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F64368-B9D5-4774-82FC-C3CF660AA407}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.46484375" customWidth="1"/>
-    <col min="2" max="2" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" customWidth="1"/>
-    <col min="5" max="5" width="10.1328125" customWidth="1"/>
-    <col min="6" max="6" width="10.46484375" customWidth="1"/>
-    <col min="7" max="7" width="8.19921875" customWidth="1"/>
-    <col min="8" max="8" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="8.33203125" customWidth="1"/>
-    <col min="16" max="23" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2476,7 +2476,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.45" customHeight="1">
+    <row r="11" spans="1:15" ht="14.4" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="25" t="s">
         <v>62</v>
@@ -2487,21 +2487,21 @@
       <c r="D11" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="62" t="s">
+      <c r="I11" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="27" t="s">
@@ -2513,19 +2513,19 @@
       <c r="D12" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62" t="s">
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62" t="s">
+      <c r="M12" s="67"/>
+      <c r="N12" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="62"/>
-    </row>
-    <row r="13" spans="1:15" ht="14.65" thickBot="1">
+      <c r="O12" s="67"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1">
       <c r="B13" s="27" t="s">
         <v>66</v>
       </c>
@@ -2535,19 +2535,19 @@
       <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="52" t="s">
         <v>142</v>
       </c>
       <c r="K13" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-    </row>
-    <row r="14" spans="1:15" ht="14.65" thickTop="1">
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickTop="1">
       <c r="B14" s="27" t="s">
         <v>69</v>
       </c>
@@ -2566,14 +2566,14 @@
       <c r="K14" s="54">
         <v>0</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59" t="s">
+      <c r="M14" s="74"/>
+      <c r="N14" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="59"/>
+      <c r="O14" s="74"/>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="29" t="s">
@@ -2594,12 +2594,12 @@
       <c r="K15" s="55">
         <v>1</v>
       </c>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60" t="s">
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="60"/>
+      <c r="O15" s="75"/>
     </row>
     <row r="16" spans="1:15">
       <c r="I16" s="31">
@@ -2611,14 +2611,14 @@
       <c r="K16" s="55">
         <v>0</v>
       </c>
-      <c r="L16" s="60" t="s">
+      <c r="L16" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60" t="s">
+      <c r="M16" s="75"/>
+      <c r="N16" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="60"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="10" t="s">
@@ -2634,12 +2634,12 @@
       <c r="K17" s="57">
         <v>1</v>
       </c>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61" t="s">
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="61"/>
+      <c r="O17" s="76"/>
     </row>
     <row r="18" spans="1:24">
       <c r="B18" s="8" t="s">
@@ -2655,7 +2655,7 @@
     <row r="19" spans="1:24">
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:24" ht="14.65" thickBot="1">
+    <row r="20" spans="1:24" ht="15" thickBot="1">
       <c r="A20" s="10" t="s">
         <v>24</v>
       </c>
@@ -2668,50 +2668,50 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:24" ht="14.25" customHeight="1">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="68" t="s">
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="70"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="64"/>
     </row>
     <row r="22" spans="1:24" s="37" customFormat="1">
-      <c r="B22" s="66"/>
-      <c r="C22" s="74" t="s">
+      <c r="B22" s="60"/>
+      <c r="C22" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="67" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="39" t="s">
@@ -2764,13 +2764,13 @@
       </c>
       <c r="X22"/>
     </row>
-    <row r="23" spans="1:24" s="37" customFormat="1" ht="14.65" thickBot="1">
-      <c r="B23" s="67"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
+    <row r="23" spans="1:24" s="37" customFormat="1" ht="15" thickBot="1">
+      <c r="B23" s="61"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="47" t="s">
         <v>111</v>
       </c>
@@ -3646,14 +3646,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="H21:W21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C21:G21"/>
     <mergeCell ref="L14:M15"/>
     <mergeCell ref="L16:M17"/>
     <mergeCell ref="N12:O13"/>
@@ -3666,6 +3658,14 @@
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="H21:W21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C21:G21"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D54:D87">
@@ -3816,7 +3816,7 @@
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E53" xr:uid="{904655A9-5768-4A78-9385-869C61CB6AAE}">
-      <formula1>LEN($E24) =2</formula1>
+      <formula1>OR(LEN($E24) =2,LEN($E24) =9)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3925,23 +3925,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104A7244-2FD8-4060-BF44-17DC2DF865AE}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.46484375" customWidth="1"/>
-    <col min="2" max="2" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" customWidth="1"/>
-    <col min="5" max="5" width="10.1328125" customWidth="1"/>
-    <col min="6" max="6" width="10.46484375" customWidth="1"/>
-    <col min="7" max="7" width="8.19921875" customWidth="1"/>
-    <col min="8" max="8" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="8.33203125" customWidth="1"/>
-    <col min="16" max="23" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4020,7 +4020,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.45" customHeight="1">
+    <row r="11" spans="1:15" ht="14.4" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="25" t="s">
         <v>62</v>
@@ -4031,21 +4031,21 @@
       <c r="D11" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="62" t="s">
+      <c r="I11" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="27" t="s">
@@ -4057,19 +4057,19 @@
       <c r="D12" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62" t="s">
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62" t="s">
+      <c r="M12" s="67"/>
+      <c r="N12" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="62"/>
-    </row>
-    <row r="13" spans="1:15" ht="14.65" thickBot="1">
+      <c r="O12" s="67"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1">
       <c r="B13" s="27" t="s">
         <v>66</v>
       </c>
@@ -4079,19 +4079,19 @@
       <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="52" t="s">
         <v>142</v>
       </c>
       <c r="K13" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-    </row>
-    <row r="14" spans="1:15" ht="14.65" thickTop="1">
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickTop="1">
       <c r="B14" s="27" t="s">
         <v>69</v>
       </c>
@@ -4110,14 +4110,14 @@
       <c r="K14" s="54">
         <v>0</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59" t="s">
+      <c r="M14" s="74"/>
+      <c r="N14" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="59"/>
+      <c r="O14" s="74"/>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="29" t="s">
@@ -4138,12 +4138,12 @@
       <c r="K15" s="55">
         <v>1</v>
       </c>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60" t="s">
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="60"/>
+      <c r="O15" s="75"/>
     </row>
     <row r="16" spans="1:15">
       <c r="I16" s="31">
@@ -4155,14 +4155,14 @@
       <c r="K16" s="55">
         <v>0</v>
       </c>
-      <c r="L16" s="60" t="s">
+      <c r="L16" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60" t="s">
+      <c r="M16" s="75"/>
+      <c r="N16" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="60"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="10" t="s">
@@ -4178,12 +4178,12 @@
       <c r="K17" s="57">
         <v>1</v>
       </c>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61" t="s">
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="61"/>
+      <c r="O17" s="76"/>
     </row>
     <row r="18" spans="1:24">
       <c r="B18" s="8" t="s">
@@ -4199,7 +4199,7 @@
     <row r="19" spans="1:24">
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:24" ht="14.65" thickBot="1">
+    <row r="20" spans="1:24" ht="15" thickBot="1">
       <c r="A20" s="10" t="s">
         <v>24</v>
       </c>
@@ -4212,50 +4212,50 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:24" ht="14.25" customHeight="1">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="68" t="s">
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="70"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="64"/>
     </row>
     <row r="22" spans="1:24" s="37" customFormat="1">
-      <c r="B22" s="66"/>
-      <c r="C22" s="74" t="s">
+      <c r="B22" s="60"/>
+      <c r="C22" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="67" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="39" t="s">
@@ -4308,13 +4308,13 @@
       </c>
       <c r="X22"/>
     </row>
-    <row r="23" spans="1:24" s="37" customFormat="1" ht="14.65" thickBot="1">
-      <c r="B23" s="67"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
+    <row r="23" spans="1:24" s="37" customFormat="1" ht="15" thickBot="1">
+      <c r="B23" s="61"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="47" t="s">
         <v>111</v>
       </c>
@@ -5216,18 +5216,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:W21"/>
@@ -5236,6 +5224,18 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
   </mergeCells>
   <conditionalFormatting sqref="D54:D87">
     <cfRule type="expression" dxfId="29" priority="16">
@@ -5383,7 +5383,7 @@
       <formula>AND($D24="SPI", $F24="CS7")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E53" xr:uid="{833228DA-EB31-42F1-9FCE-AB039C0A0F62}">
       <formula1>LEN($E24) =2</formula1>
     </dataValidation>
@@ -5393,7 +5393,7 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="14">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6C0E9750-84AC-46B1-8414-37113FB58EE7}">
           <x14:formula1>
             <xm:f>List!B$22:B$23</xm:f>
@@ -5498,18 +5498,18 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.86328125" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.46484375" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.109375" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.6640625" customWidth="1"/>
   </cols>

--- a/DataAnalyzer/assets/Promira_Template.xlsx
+++ b/DataAnalyzer/assets/Promira_Template.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://photonicinc-my.sharepoint.com/personal/iyoneda_photonic_com/Documents/Python/AnalysisTool/DataAnalyzer/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{34546EDD-0976-441B-9C7E-72ECB1EC2448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B4BCBF5-2DF9-47D5-988A-B030E9E432E6}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{34546EDD-0976-441B-9C7E-72ECB1EC2448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95AE4BD5-39F6-4555-82B9-351D2BA38878}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{71E5DD2A-653A-445C-B1AD-1FDFECD4E8B5}"/>
+    <workbookView xWindow="-27312" yWindow="1848" windowWidth="25992" windowHeight="13572" xr2:uid="{71E5DD2A-653A-445C-B1AD-1FDFECD4E8B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="6" r:id="rId1"/>
-    <sheet name="Sample (2)" sheetId="7" r:id="rId2"/>
-    <sheet name="List" sheetId="2" r:id="rId3"/>
+    <sheet name="List" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="152">
   <si>
     <t>Mode</t>
   </si>
@@ -1204,261 +1203,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -1737,7 +1482,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>539778</xdr:colOff>
+      <xdr:colOff>556288</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>2566</xdr:rowOff>
     </xdr:to>
@@ -1894,172 +1639,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>145774</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>106019</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>539778</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2566</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03ED6293-2092-4A4A-B82D-C67F150C699F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10180362" y="1010894"/>
-          <a:ext cx="4494516" cy="2077772"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>642731</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>26505</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>185530</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>46382</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Right Brace 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A081B69-4CEF-4822-B360-39357E4DE6C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4567031" y="2017230"/>
-          <a:ext cx="290512" cy="386590"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>185530</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>39757</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>496957</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>39757</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2372E589-44B3-484E-A759-AD2580054D58}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4857543" y="2211457"/>
-          <a:ext cx="897214" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2381,23 +1962,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F64368-B9D5-4774-82FC-C3CF660AA407}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="8.33203125" customWidth="1"/>
-    <col min="16" max="23" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="8.36328125" customWidth="1"/>
+    <col min="16" max="23" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2817,18 +2398,24 @@
         <v>134</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="45">
         <v>48</v>
       </c>
-      <c r="F24" s="45"/>
+      <c r="F24" s="45" t="s">
+        <v>89</v>
+      </c>
       <c r="G24" s="50" t="s">
         <v>149</v>
       </c>
       <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
+      <c r="I24" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>136</v>
+      </c>
       <c r="K24" s="45"/>
       <c r="L24" s="45"/>
       <c r="M24" s="45"/>
@@ -2864,8 +2451,12 @@
         <v>150</v>
       </c>
       <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
+      <c r="I25" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>135</v>
+      </c>
       <c r="K25" s="45"/>
       <c r="L25" s="45"/>
       <c r="M25" s="45"/>
@@ -2898,9 +2489,15 @@
       <c r="G26" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
+      <c r="H26" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="45" t="s">
+        <v>136</v>
+      </c>
       <c r="K26" s="45"/>
       <c r="L26" s="45"/>
       <c r="M26" s="45"/>
@@ -3669,148 +3266,148 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D54:D87">
-    <cfRule type="expression" dxfId="59" priority="21">
+    <cfRule type="expression" dxfId="29" priority="21">
       <formula>$C54="SPI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:F87">
-    <cfRule type="expression" dxfId="58" priority="24">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>$C54="GPIO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E100">
-    <cfRule type="expression" dxfId="57" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>$D24="SPI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:G100">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>$D24="GPIO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:W100">
-    <cfRule type="expression" dxfId="55" priority="80">
+    <cfRule type="expression" dxfId="25" priority="80">
       <formula>AND($C24="Read", $D24="GPIO")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F100 H24:I100">
-    <cfRule type="expression" dxfId="54" priority="14">
+    <cfRule type="expression" dxfId="24" priority="14">
       <formula>$D24="I2C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F100 H24:W100">
-    <cfRule type="expression" dxfId="53" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>AND($C24="Read", $D24="I2C")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:H89 E54:E87">
-    <cfRule type="expression" dxfId="52" priority="20">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>$C54="I2C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:V89">
-    <cfRule type="containsText" dxfId="51" priority="18" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",G54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:W53 G54:V89">
-    <cfRule type="containsText" dxfId="50" priority="84" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="20" priority="84" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",G24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:W53 H54:I89">
-    <cfRule type="containsText" dxfId="49" priority="82" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="19" priority="82" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I89">
-    <cfRule type="expression" dxfId="48" priority="12">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>AND($C54="SPI", $E54="CS0")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:J100">
-    <cfRule type="expression" dxfId="47" priority="27">
+    <cfRule type="expression" dxfId="17" priority="27">
       <formula>AND($D24="SPI", $F24="CS0")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:J89">
-    <cfRule type="expression" dxfId="46" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>AND($C54="SPI", $E54="CS2")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:K100">
-    <cfRule type="expression" dxfId="45" priority="48">
+    <cfRule type="expression" dxfId="15" priority="48">
       <formula>AND($D24="SPI", $F24="CS2")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:K89">
-    <cfRule type="expression" dxfId="44" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>AND($C54="SPI", $E54="CS1")</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",K54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24:L100">
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="12" priority="46">
       <formula>AND($D24="SPI", $F24="CS1")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54:L87">
-    <cfRule type="expression" dxfId="41" priority="19">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>AND($B54="SPI", $E54="CS3")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="22">
+    <cfRule type="expression" dxfId="10" priority="22">
       <formula>AND($C54="SPI", $D54="CS4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54:L89">
-    <cfRule type="expression" dxfId="39" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>AND($C54="SPI", $E54="CS3")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:M100">
-    <cfRule type="expression" dxfId="38" priority="49">
+    <cfRule type="expression" dxfId="8" priority="49">
       <formula>AND($D24="SPI", $F24="CS3")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54:M89">
-    <cfRule type="expression" dxfId="37" priority="77">
+    <cfRule type="expression" dxfId="7" priority="77">
       <formula>AND($C54="SPI", $E54="CS4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24:N100">
-    <cfRule type="expression" dxfId="36" priority="51">
+    <cfRule type="expression" dxfId="6" priority="51">
       <formula>AND($D24="SPI", $F24="CS4")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54:N87">
-    <cfRule type="expression" dxfId="35" priority="17">
+    <cfRule type="expression" dxfId="5" priority="17">
       <formula>AND($C54="SPI", $E54="CS5")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:O100">
-    <cfRule type="expression" dxfId="34" priority="63">
+    <cfRule type="expression" dxfId="4" priority="63">
       <formula>AND($D24="SPI", $F24="CS5")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54:O89">
-    <cfRule type="expression" dxfId="33" priority="16">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>AND($C54="SPI", $E54="CS6")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:P100">
-    <cfRule type="expression" dxfId="32" priority="65">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>AND($D24="SPI", $F24="CS6")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V54:V89">
-    <cfRule type="expression" dxfId="31" priority="8">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>AND($C54="SPI", $E54="CS7")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24:W100">
-    <cfRule type="expression" dxfId="30" priority="68">
+    <cfRule type="expression" dxfId="0" priority="68">
       <formula>AND($D24="SPI", $F24="CS7")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3922,1596 +3519,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104A7244-2FD8-4060-BF44-17DC2DF865AE}">
-  <dimension ref="A1:X53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="8.33203125" customWidth="1"/>
-    <col min="16" max="23" width="8.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="B2" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="44">
-        <v>3.3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="B3" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="58">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="B4" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="30">
-        <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="B7" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="B8" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="30">
-        <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="26">
-        <v>200</v>
-      </c>
-      <c r="D11" t="s">
-        <v>148</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="J11" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="L11" s="78" t="s">
-        <v>146</v>
-      </c>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="67"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1">
-      <c r="B13" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="77"/>
-      <c r="J13" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickTop="1">
-      <c r="B14" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="53">
-        <v>0</v>
-      </c>
-      <c r="J14" s="54">
-        <v>0</v>
-      </c>
-      <c r="K14" s="54">
-        <v>0</v>
-      </c>
-      <c r="L14" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14" s="74"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="B15" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="31">
-        <v>1</v>
-      </c>
-      <c r="J15" s="55">
-        <v>0</v>
-      </c>
-      <c r="K15" s="55">
-        <v>1</v>
-      </c>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="O15" s="75"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="I16" s="31">
-        <v>2</v>
-      </c>
-      <c r="J16" s="55">
-        <v>1</v>
-      </c>
-      <c r="K16" s="55">
-        <v>0</v>
-      </c>
-      <c r="L16" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="O16" s="75"/>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17"/>
-      <c r="I17" s="56">
-        <v>3</v>
-      </c>
-      <c r="J17" s="57">
-        <v>1</v>
-      </c>
-      <c r="K17" s="57">
-        <v>1</v>
-      </c>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="O17" s="76"/>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="B18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:24" ht="15" thickBot="1">
-      <c r="A20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:24" ht="14.25" customHeight="1">
-      <c r="B21" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="64"/>
-    </row>
-    <row r="22" spans="1:24" s="37" customFormat="1">
-      <c r="B22" s="60"/>
-      <c r="C22" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="K22" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="M22" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="N22" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="O22" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="P22" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q22" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="R22" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="S22" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="T22" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="U22" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="V22" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="W22" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X22"/>
-    </row>
-    <row r="23" spans="1:24" s="37" customFormat="1" ht="15" thickBot="1">
-      <c r="B23" s="61"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="J23" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="K23" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="L23" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="M23" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="N23" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="O23" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="P23" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="X23"/>
-    </row>
-    <row r="24" spans="1:24">
-      <c r="B24" s="45">
-        <v>1</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="45">
-        <v>48</v>
-      </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-    </row>
-    <row r="25" spans="1:24">
-      <c r="B25" s="24">
-        <f>B24+1</f>
-        <v>2</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="45">
-        <v>40</v>
-      </c>
-      <c r="F25" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-    </row>
-    <row r="26" spans="1:24">
-      <c r="B26" s="24">
-        <f t="shared" ref="B26:B53" si="0">B25+1</f>
-        <v>3</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="45">
-        <v>40</v>
-      </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="B27" s="24">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="45">
-        <v>48</v>
-      </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="B28" s="24">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="45">
-        <v>40</v>
-      </c>
-      <c r="F28" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-    </row>
-    <row r="29" spans="1:24">
-      <c r="B29" s="24">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="45">
-        <v>40</v>
-      </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-    </row>
-    <row r="30" spans="1:24">
-      <c r="B30" s="24">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-    </row>
-    <row r="31" spans="1:24">
-      <c r="B31" s="24">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-    </row>
-    <row r="32" spans="1:24">
-      <c r="B32" s="24">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-    </row>
-    <row r="33" spans="2:23">
-      <c r="B33" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-    </row>
-    <row r="34" spans="2:23">
-      <c r="B34" s="24">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-    </row>
-    <row r="35" spans="2:23">
-      <c r="B35" s="24">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
-    </row>
-    <row r="36" spans="2:23">
-      <c r="B36" s="24">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-    </row>
-    <row r="37" spans="2:23">
-      <c r="B37" s="24">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-    </row>
-    <row r="38" spans="2:23">
-      <c r="B38" s="24">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-    </row>
-    <row r="39" spans="2:23">
-      <c r="B39" s="24">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="45"/>
-      <c r="W39" s="45"/>
-    </row>
-    <row r="40" spans="2:23">
-      <c r="B40" s="24">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-    </row>
-    <row r="41" spans="2:23">
-      <c r="B41" s="24">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
-    </row>
-    <row r="42" spans="2:23">
-      <c r="B42" s="24">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="45"/>
-    </row>
-    <row r="43" spans="2:23">
-      <c r="B43" s="24">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="45"/>
-    </row>
-    <row r="44" spans="2:23">
-      <c r="B44" s="24">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="45"/>
-    </row>
-    <row r="45" spans="2:23">
-      <c r="B45" s="24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
-      <c r="U45" s="45"/>
-      <c r="V45" s="45"/>
-      <c r="W45" s="45"/>
-    </row>
-    <row r="46" spans="2:23">
-      <c r="B46" s="24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="45"/>
-      <c r="V46" s="45"/>
-      <c r="W46" s="45"/>
-    </row>
-    <row r="47" spans="2:23">
-      <c r="B47" s="24">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="45"/>
-    </row>
-    <row r="48" spans="2:23">
-      <c r="B48" s="24">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="45"/>
-      <c r="U48" s="45"/>
-      <c r="V48" s="45"/>
-      <c r="W48" s="45"/>
-    </row>
-    <row r="49" spans="2:23">
-      <c r="B49" s="24">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="45"/>
-    </row>
-    <row r="50" spans="2:23">
-      <c r="B50" s="24">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="45"/>
-      <c r="W50" s="45"/>
-    </row>
-    <row r="51" spans="2:23">
-      <c r="B51" s="24">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="45"/>
-      <c r="V51" s="45"/>
-      <c r="W51" s="45"/>
-    </row>
-    <row r="52" spans="2:23">
-      <c r="B52" s="24">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="45"/>
-      <c r="W52" s="45"/>
-    </row>
-    <row r="53" spans="2:23">
-      <c r="B53" s="24">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="45"/>
-      <c r="W53" s="45"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:W21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:O13"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D54:D87">
-    <cfRule type="expression" dxfId="29" priority="16">
-      <formula>$C54="SPI"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54:F87">
-    <cfRule type="expression" dxfId="28" priority="18">
-      <formula>$C54="GPIO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E100">
-    <cfRule type="expression" dxfId="27" priority="3">
-      <formula>$D24="SPI"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:G100">
-    <cfRule type="expression" dxfId="26" priority="2">
-      <formula>$D24="GPIO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:W100">
-    <cfRule type="expression" dxfId="25" priority="28">
-      <formula>AND($C24="Read", $D24="GPIO")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F100 H24:I100">
-    <cfRule type="expression" dxfId="24" priority="9">
-      <formula>$D24="I2C"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F100 H24:W100">
-    <cfRule type="expression" dxfId="23" priority="1">
-      <formula>AND($C24="Read", $D24="I2C")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54:H89 E54:E87">
-    <cfRule type="expression" dxfId="22" priority="15">
-      <formula>$C54="I2C"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54:V89">
-    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",G54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:W53 G54:V89">
-    <cfRule type="containsText" dxfId="20" priority="30" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",G24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:W53 H54:I89">
-    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",H24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:I89">
-    <cfRule type="expression" dxfId="18" priority="8">
-      <formula>AND($C54="SPI", $E54="CS0")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J100">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>AND($D24="SPI", $F24="CS0")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54:J89">
-    <cfRule type="expression" dxfId="16" priority="7">
-      <formula>AND($C54="SPI", $E54="CS2")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:K100">
-    <cfRule type="expression" dxfId="15" priority="21">
-      <formula>AND($D24="SPI", $F24="CS2")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:K89">
-    <cfRule type="expression" dxfId="14" priority="6">
-      <formula>AND($C54="SPI", $E54="CS1")</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",K54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24:L100">
-    <cfRule type="expression" dxfId="12" priority="20">
-      <formula>AND($D24="SPI", $F24="CS1")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L54:L87">
-    <cfRule type="expression" dxfId="11" priority="14">
-      <formula>AND($B54="SPI", $E54="CS3")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="17">
-      <formula>AND($C54="SPI", $D54="CS4")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L54:L89">
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>AND($C54="SPI", $E54="CS3")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24:M100">
-    <cfRule type="expression" dxfId="8" priority="22">
-      <formula>AND($D24="SPI", $F24="CS3")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M54:M89">
-    <cfRule type="expression" dxfId="7" priority="27">
-      <formula>AND($C54="SPI", $E54="CS4")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N24:N100">
-    <cfRule type="expression" dxfId="6" priority="23">
-      <formula>AND($D24="SPI", $F24="CS4")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N54:N87">
-    <cfRule type="expression" dxfId="5" priority="12">
-      <formula>AND($C54="SPI", $E54="CS5")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O24:O100">
-    <cfRule type="expression" dxfId="4" priority="24">
-      <formula>AND($D24="SPI", $F24="CS5")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O54:O89">
-    <cfRule type="expression" dxfId="3" priority="11">
-      <formula>AND($C54="SPI", $E54="CS6")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P24:P100">
-    <cfRule type="expression" dxfId="2" priority="25">
-      <formula>AND($D24="SPI", $F24="CS6")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V54:V89">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND($C54="SPI", $E54="CS7")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W24:W100">
-    <cfRule type="expression" dxfId="0" priority="26">
-      <formula>AND($D24="SPI", $F24="CS7")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E53" xr:uid="{833228DA-EB31-42F1-9FCE-AB039C0A0F62}">
-      <formula1>LEN($E24) =2</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="14">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6C0E9750-84AC-46B1-8414-37113FB58EE7}">
-          <x14:formula1>
-            <xm:f>List!B$22:B$23</xm:f>
-          </x14:formula1>
-          <xm:sqref>C12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{26AD812C-6512-45D7-A04F-2895538744FB}">
-          <x14:formula1>
-            <xm:f>List!G$22:G$23</xm:f>
-          </x14:formula1>
-          <xm:sqref>C13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6666B7E5-B6AD-491E-8DCC-347E2C843FD1}">
-          <x14:formula1>
-            <xm:f>List!I$22:I$23</xm:f>
-          </x14:formula1>
-          <xm:sqref>C14</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7C2E5226-6461-46C5-9734-D1BBB9AFF61D}">
-          <x14:formula1>
-            <xm:f>List!K$22:K$23</xm:f>
-          </x14:formula1>
-          <xm:sqref>C15</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{62727870-366C-4851-82D9-4498D08D3D5D}">
-          <x14:formula1>
-            <xm:f>IF($C24="Write", List!$B$34:$B$36, List!$B$40:$B$41)</xm:f>
-          </x14:formula1>
-          <xm:sqref>D24:D53</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{33BA3A61-5313-4389-93CD-9971C8A730BA}">
-          <x14:formula1>
-            <xm:f>List!$F$34:$F$35</xm:f>
-          </x14:formula1>
-          <xm:sqref>C24:C53</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB5B44F7-2301-48AB-BCCA-9758B4AB0472}">
-          <x14:formula1>
-            <xm:f>List!$G$3:$G$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B5724B86-8BE5-4AA9-A034-0F243C90F493}">
-          <x14:formula1>
-            <xm:f>List!$I$3:$I$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1DD67489-583D-4A29-BB39-CE906E4CCC8A}">
-          <x14:formula1>
-            <xm:f>List!$E$8</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>List!$F$9</xm:f>
-          </x14:formula2>
-          <xm:sqref>C4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6059EB33-2471-4759-B7A7-70D8A01B5CE9}">
-          <x14:formula1>
-            <xm:f>List!$E$3</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>List!$E$4</xm:f>
-          </x14:formula2>
-          <xm:sqref>C11 C8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E2D2291-6C0A-4D19-9A41-51A36EBA4144}">
-          <x14:formula1>
-            <xm:f>List!$B$16:$B$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>C7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{84EE4326-C9C5-4622-A791-C751415F0645}">
-          <x14:formula1>
-            <xm:f>List!$D$28:$D$29</xm:f>
-          </x14:formula1>
-          <xm:sqref>C18</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6BECFE6F-9255-4073-A0B3-5B07DEA4D2BC}">
-          <x14:formula1>
-            <xm:f>List!$D$34:$D$41</xm:f>
-          </x14:formula1>
-          <xm:sqref>F24:F53</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E775369B-97A7-4875-8322-90FB15E4F275}">
-          <x14:formula1>
-            <xm:f>List!$G$28:$G$29</xm:f>
-          </x14:formula1>
-          <xm:sqref>H24:W53</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C55437-BF18-49CF-8AA5-9CF762574C38}">
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.54296875" style="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.08984375" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" customWidth="1"/>
+    <col min="20" max="20" width="4.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
